--- a/Excel Dateien/Alans entropies.xlsx
+++ b/Excel Dateien/Alans entropies.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rickman\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rickman\Documents\GitHub\Labrotation\Excel Dateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415C5E12-1C32-4869-ACEA-768A33288BF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DF6D15-7E6F-4D15-B5E5-5026F1CBE51A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2973,16 +2973,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>557212</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3310,7 +3310,7 @@
   <dimension ref="A1:C442"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
